--- a/natmiOut/OldD0/LR-pairs_lrc2p/Pdgfb-Lrp1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Pdgfb-Lrp1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,12 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -83,12 +89,6 @@
   </si>
   <si>
     <t>Lrp1</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.83662222437446</v>
+        <v>27.388319</v>
       </c>
       <c r="H2">
-        <v>1.83662222437446</v>
+        <v>82.164957</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.9327824776802173</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.9327824776802174</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.7716685584531</v>
+        <v>21.08181366666667</v>
       </c>
       <c r="N2">
-        <v>10.7716685584531</v>
+        <v>63.245441</v>
       </c>
       <c r="O2">
-        <v>0.03043412446541212</v>
+        <v>0.0571606014598545</v>
       </c>
       <c r="P2">
-        <v>0.03043412446541212</v>
+        <v>0.0571606014598545</v>
       </c>
       <c r="Q2">
-        <v>19.78348586805057</v>
+        <v>577.3954378012263</v>
       </c>
       <c r="R2">
-        <v>19.78348586805057</v>
+        <v>5196.558940211037</v>
       </c>
       <c r="S2">
-        <v>0.03043412446541212</v>
+        <v>0.05331840745541452</v>
       </c>
       <c r="T2">
-        <v>0.03043412446541212</v>
+        <v>0.05331840745541453</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +581,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.83662222437446</v>
+        <v>27.388319</v>
       </c>
       <c r="H3">
-        <v>1.83662222437446</v>
+        <v>82.164957</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.9327824776802173</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.9327824776802174</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>297.840596658785</v>
+        <v>301.6001486666667</v>
       </c>
       <c r="N3">
-        <v>297.840596658785</v>
+        <v>904.800446</v>
       </c>
       <c r="O3">
-        <v>0.8415147328732707</v>
+        <v>0.8177496571571792</v>
       </c>
       <c r="P3">
-        <v>0.8415147328732707</v>
+        <v>0.8177496571571792</v>
       </c>
       <c r="Q3">
-        <v>547.0206591444741</v>
+        <v>8260.321082130091</v>
       </c>
       <c r="R3">
-        <v>547.0206591444741</v>
+        <v>74342.88973917082</v>
       </c>
       <c r="S3">
-        <v>0.8415147328732707</v>
+        <v>0.7627825513252218</v>
       </c>
       <c r="T3">
-        <v>0.8415147328732707</v>
+        <v>0.7627825513252219</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +643,433 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G4">
+        <v>27.388319</v>
+      </c>
+      <c r="H4">
+        <v>82.164957</v>
+      </c>
+      <c r="I4">
+        <v>0.9327824776802173</v>
+      </c>
+      <c r="J4">
+        <v>0.9327824776802174</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>46.13524966666667</v>
+      </c>
+      <c r="N4">
+        <v>138.405749</v>
+      </c>
+      <c r="O4">
+        <v>0.1250897413829664</v>
+      </c>
+      <c r="P4">
+        <v>0.1250897413829664</v>
+      </c>
+      <c r="Q4">
+        <v>1263.56693501531</v>
+      </c>
+      <c r="R4">
+        <v>11372.1024151378</v>
+      </c>
+      <c r="S4">
+        <v>0.116681518899581</v>
+      </c>
+      <c r="T4">
+        <v>0.116681518899581</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>0.134644</v>
+      </c>
+      <c r="H5">
+        <v>0.403932</v>
+      </c>
+      <c r="I5">
+        <v>0.004585661643738528</v>
+      </c>
+      <c r="J5">
+        <v>0.004585661643738528</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>21.08181366666667</v>
+      </c>
+      <c r="N5">
+        <v>63.245441</v>
+      </c>
+      <c r="O5">
+        <v>0.0571606014598545</v>
+      </c>
+      <c r="P5">
+        <v>0.0571606014598545</v>
+      </c>
+      <c r="Q5">
+        <v>2.838539719334666</v>
+      </c>
+      <c r="R5">
+        <v>25.546857474012</v>
+      </c>
+      <c r="S5">
+        <v>0.0002621191776474793</v>
+      </c>
+      <c r="T5">
+        <v>0.0002621191776474793</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.134644</v>
+      </c>
+      <c r="H6">
+        <v>0.403932</v>
+      </c>
+      <c r="I6">
+        <v>0.004585661643738528</v>
+      </c>
+      <c r="J6">
+        <v>0.004585661643738528</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>301.6001486666667</v>
+      </c>
+      <c r="N6">
+        <v>904.800446</v>
+      </c>
+      <c r="O6">
+        <v>0.8177496571571792</v>
+      </c>
+      <c r="P6">
+        <v>0.8177496571571792</v>
+      </c>
+      <c r="Q6">
+        <v>40.60865041707466</v>
+      </c>
+      <c r="R6">
+        <v>365.4778537536719</v>
+      </c>
+      <c r="S6">
+        <v>0.003749923237006008</v>
+      </c>
+      <c r="T6">
+        <v>0.003749923237006008</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.134644</v>
+      </c>
+      <c r="H7">
+        <v>0.403932</v>
+      </c>
+      <c r="I7">
+        <v>0.004585661643738528</v>
+      </c>
+      <c r="J7">
+        <v>0.004585661643738528</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>46.13524966666667</v>
+      </c>
+      <c r="N7">
+        <v>138.405749</v>
+      </c>
+      <c r="O7">
+        <v>0.1250897413829664</v>
+      </c>
+      <c r="P7">
+        <v>0.1250897413829664</v>
+      </c>
+      <c r="Q7">
+        <v>6.211834556118667</v>
+      </c>
+      <c r="R7">
+        <v>55.906511005068</v>
+      </c>
+      <c r="S7">
+        <v>0.0005736192290850409</v>
+      </c>
+      <c r="T7">
+        <v>0.0005736192290850409</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
         <v>20</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>1.83662222437446</v>
-      </c>
-      <c r="H4">
-        <v>1.83662222437446</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>45.3216411349859</v>
-      </c>
-      <c r="N4">
-        <v>45.3216411349859</v>
-      </c>
-      <c r="O4">
-        <v>0.1280511426613172</v>
-      </c>
-      <c r="P4">
-        <v>0.1280511426613172</v>
-      </c>
-      <c r="Q4">
-        <v>83.23873335363884</v>
-      </c>
-      <c r="R4">
-        <v>83.23873335363884</v>
-      </c>
-      <c r="S4">
-        <v>0.1280511426613172</v>
-      </c>
-      <c r="T4">
-        <v>0.1280511426613172</v>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1.838994</v>
+      </c>
+      <c r="H8">
+        <v>5.516982</v>
+      </c>
+      <c r="I8">
+        <v>0.06263186067604418</v>
+      </c>
+      <c r="J8">
+        <v>0.06263186067604418</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>21.08181366666667</v>
+      </c>
+      <c r="N8">
+        <v>63.245441</v>
+      </c>
+      <c r="O8">
+        <v>0.0571606014598545</v>
+      </c>
+      <c r="P8">
+        <v>0.0571606014598545</v>
+      </c>
+      <c r="Q8">
+        <v>38.769328842118</v>
+      </c>
+      <c r="R8">
+        <v>348.9239595790621</v>
+      </c>
+      <c r="S8">
+        <v>0.003580074826792494</v>
+      </c>
+      <c r="T8">
+        <v>0.003580074826792494</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.838994</v>
+      </c>
+      <c r="H9">
+        <v>5.516982</v>
+      </c>
+      <c r="I9">
+        <v>0.06263186067604418</v>
+      </c>
+      <c r="J9">
+        <v>0.06263186067604418</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>301.6001486666667</v>
+      </c>
+      <c r="N9">
+        <v>904.800446</v>
+      </c>
+      <c r="O9">
+        <v>0.8177496571571792</v>
+      </c>
+      <c r="P9">
+        <v>0.8177496571571792</v>
+      </c>
+      <c r="Q9">
+        <v>554.6408637971081</v>
+      </c>
+      <c r="R9">
+        <v>4991.767774173973</v>
+      </c>
+      <c r="S9">
+        <v>0.05121718259495134</v>
+      </c>
+      <c r="T9">
+        <v>0.05121718259495134</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.838994</v>
+      </c>
+      <c r="H10">
+        <v>5.516982</v>
+      </c>
+      <c r="I10">
+        <v>0.06263186067604418</v>
+      </c>
+      <c r="J10">
+        <v>0.06263186067604418</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>46.13524966666667</v>
+      </c>
+      <c r="N10">
+        <v>138.405749</v>
+      </c>
+      <c r="O10">
+        <v>0.1250897413829664</v>
+      </c>
+      <c r="P10">
+        <v>0.1250897413829664</v>
+      </c>
+      <c r="Q10">
+        <v>84.84244732550202</v>
+      </c>
+      <c r="R10">
+        <v>763.5820259295182</v>
+      </c>
+      <c r="S10">
+        <v>0.007834603254300347</v>
+      </c>
+      <c r="T10">
+        <v>0.007834603254300347</v>
       </c>
     </row>
   </sheetData>
